--- a/database.xlsx
+++ b/database.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -47,6 +47,10 @@
       <sz val="14"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <sz val="14"/>
+    </font>
+    <font>
       <sz val="14"/>
     </font>
   </fonts>
@@ -58,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -141,6 +145,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -179,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -193,10 +212,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -204,13 +226,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,7 +581,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -571,22 +593,22 @@
     <col width="18.28515625" customWidth="1" style="2" min="5" max="5"/>
     <col width="14.85546875" customWidth="1" style="2" min="6" max="6"/>
     <col width="11.28515625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="9.140625" customWidth="1" style="1" min="8" max="35"/>
-    <col width="9.140625" customWidth="1" style="1" min="36" max="16384"/>
+    <col width="9.140625" customWidth="1" style="1" min="8" max="36"/>
+    <col width="9.140625" customWidth="1" style="1" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Количество ползователей:</t>
         </is>
       </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="11" t="n"/>
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="11" t="n"/>
+      <c r="E1" s="12" t="n"/>
       <c r="F1" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="4" t="n"/>
     </row>
@@ -628,94 +650,114 @@
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="12" t="inlineStr"/>
-      <c r="B3" s="12" t="inlineStr"/>
-      <c r="C3" s="12" t="inlineStr"/>
-      <c r="D3" s="12" t="inlineStr"/>
-      <c r="E3" s="12" t="inlineStr"/>
-      <c r="F3" s="13" t="inlineStr"/>
-      <c r="G3" s="14" t="inlineStr"/>
+      <c r="A3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>1220018146</v>
+      </c>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
+        <is>
+          <t>Yu</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="inlineStr">
+        <is>
+          <t>yu_leo</t>
+        </is>
+      </c>
+      <c r="F3" s="14" t="n">
+        <v>44055</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>0.8650429005208333</v>
+      </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="12" t="inlineStr"/>
-      <c r="B4" s="12" t="inlineStr"/>
-      <c r="C4" s="12" t="inlineStr"/>
-      <c r="D4" s="12" t="inlineStr"/>
-      <c r="E4" s="12" t="inlineStr"/>
-      <c r="F4" s="13" t="inlineStr"/>
-      <c r="G4" s="14" t="inlineStr"/>
+      <c r="A4" s="7" t="n"/>
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="7" t="n"/>
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="7" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="9" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="12" t="inlineStr"/>
-      <c r="B5" s="12" t="inlineStr"/>
-      <c r="C5" s="12" t="inlineStr"/>
-      <c r="D5" s="12" t="inlineStr"/>
-      <c r="E5" s="12" t="inlineStr"/>
-      <c r="F5" s="13" t="inlineStr"/>
-      <c r="G5" s="14" t="inlineStr"/>
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="9" t="n"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="12" t="inlineStr"/>
-      <c r="B6" s="12" t="inlineStr"/>
-      <c r="C6" s="12" t="inlineStr"/>
-      <c r="D6" s="12" t="inlineStr"/>
-      <c r="E6" s="12" t="inlineStr"/>
-      <c r="F6" s="13" t="inlineStr"/>
-      <c r="G6" s="14" t="inlineStr"/>
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="8" t="n"/>
+      <c r="G6" s="9" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="12" t="inlineStr"/>
-      <c r="B7" s="12" t="inlineStr"/>
-      <c r="C7" s="12" t="inlineStr"/>
-      <c r="D7" s="12" t="inlineStr"/>
-      <c r="E7" s="12" t="inlineStr"/>
-      <c r="F7" s="13" t="inlineStr"/>
-      <c r="G7" s="14" t="inlineStr"/>
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="9" t="n"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="12" t="inlineStr"/>
-      <c r="B8" s="12" t="inlineStr"/>
-      <c r="C8" s="12" t="inlineStr"/>
-      <c r="D8" s="12" t="inlineStr"/>
-      <c r="E8" s="12" t="inlineStr"/>
-      <c r="F8" s="13" t="inlineStr"/>
-      <c r="G8" s="14" t="inlineStr"/>
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="8" t="n"/>
+      <c r="G8" s="9" t="n"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="12" t="inlineStr"/>
-      <c r="B9" s="12" t="inlineStr"/>
-      <c r="C9" s="12" t="inlineStr"/>
-      <c r="D9" s="12" t="inlineStr"/>
-      <c r="E9" s="12" t="inlineStr"/>
-      <c r="F9" s="13" t="inlineStr"/>
-      <c r="G9" s="12" t="inlineStr"/>
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="8" t="n"/>
+      <c r="G9" s="7" t="n"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="12" t="inlineStr"/>
-      <c r="B10" s="12" t="inlineStr"/>
-      <c r="C10" s="12" t="inlineStr"/>
-      <c r="D10" s="12" t="inlineStr"/>
-      <c r="E10" s="12" t="inlineStr"/>
-      <c r="F10" s="12" t="inlineStr"/>
-      <c r="G10" s="12" t="inlineStr"/>
+      <c r="A10" s="7" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="12" t="inlineStr"/>
-      <c r="B11" s="12" t="inlineStr"/>
-      <c r="C11" s="12" t="inlineStr"/>
-      <c r="D11" s="12" t="inlineStr"/>
-      <c r="E11" s="12" t="inlineStr"/>
-      <c r="F11" s="12" t="inlineStr"/>
-      <c r="G11" s="12" t="inlineStr"/>
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="12" t="inlineStr"/>
-      <c r="B12" s="12" t="inlineStr"/>
-      <c r="C12" s="12" t="inlineStr"/>
-      <c r="D12" s="12" t="inlineStr"/>
-      <c r="E12" s="12" t="inlineStr"/>
-      <c r="F12" s="12" t="inlineStr"/>
-      <c r="G12" s="12" t="inlineStr"/>
+      <c r="A12" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="6" t="n"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -608,7 +608,7 @@
       <c r="D1" s="11" t="n"/>
       <c r="E1" s="12" t="n"/>
       <c r="F1" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="4" t="n"/>
     </row>
@@ -650,33 +650,13 @@
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="n">
-        <v>1220018146</v>
-      </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>Leo</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="inlineStr">
-        <is>
-          <t>Yu</t>
-        </is>
-      </c>
-      <c r="E3" s="13" t="inlineStr">
-        <is>
-          <t>yu_leo</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="n">
-        <v>44055</v>
-      </c>
-      <c r="G3" s="15" t="n">
-        <v>0.8650429005208333</v>
-      </c>
+      <c r="A3" s="13" t="inlineStr"/>
+      <c r="B3" s="13" t="inlineStr"/>
+      <c r="C3" s="13" t="inlineStr"/>
+      <c r="D3" s="13" t="inlineStr"/>
+      <c r="E3" s="13" t="inlineStr"/>
+      <c r="F3" s="14" t="inlineStr"/>
+      <c r="G3" s="15" t="inlineStr"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="7" t="n"/>
